--- a/Pro/Extra/Table/Stage.xlsx
+++ b/Pro/Extra/Table/Stage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="23670" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="24600" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,18 @@
   </si>
   <si>
     <t>Part1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Script</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExploreStage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +458,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -460,7 +472,7 @@
     <col min="9" max="9" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -479,8 +491,11 @@
       <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -499,8 +514,11 @@
       <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -519,8 +537,11 @@
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -539,8 +560,11 @@
       <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -558,6 +582,9 @@
       </c>
       <c r="F5" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Pro/Extra/Table/Stage.xlsx
+++ b/Pro/Extra/Table/Stage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="24600" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="25530" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,10 @@
   </si>
   <si>
     <t>ExploreStage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndlessStage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,7 +565,7 @@
         <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
